--- a/华为.xlsx
+++ b/华为.xlsx
@@ -8,12 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MobileInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFFD45F-4437-42AF-A063-6F8D1400554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B695D76-6DB3-44D7-9CE6-A2B507F14C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mate" sheetId="1" r:id="rId1"/>
+    <sheet name="Pura" sheetId="2" r:id="rId2"/>
+    <sheet name="Nova" sheetId="3" r:id="rId3"/>
+    <sheet name="Pocket" sheetId="4" r:id="rId4"/>
+    <sheet name="麦芒" sheetId="5" r:id="rId5"/>
+    <sheet name="Y" sheetId="6" r:id="rId6"/>
+    <sheet name="T" sheetId="7" r:id="rId7"/>
+    <sheet name="U" sheetId="8" r:id="rId8"/>
+    <sheet name="C" sheetId="9" r:id="rId9"/>
+    <sheet name="S" sheetId="10" r:id="rId10"/>
+    <sheet name="D" sheetId="11" r:id="rId11"/>
+    <sheet name="G" sheetId="12" r:id="rId12"/>
+    <sheet name="Q" sheetId="13" r:id="rId13"/>
+    <sheet name="X" sheetId="14" r:id="rId14"/>
+    <sheet name="GX" sheetId="15" r:id="rId15"/>
+    <sheet name="Gr" sheetId="16" r:id="rId16"/>
+    <sheet name="W" sheetId="17" r:id="rId17"/>
+    <sheet name="Ascend" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>传感器类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mate2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>海思 Kirin 910</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +119,6 @@
     <t>1.6GHz</t>
   </si>
   <si>
-    <t>CPU核心数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,10 +173,6 @@
     <t>4050mAh</t>
   </si>
   <si>
-    <t>Mate1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>海思 K3V2</t>
   </si>
   <si>
@@ -202,6 +203,172 @@
   <si>
     <t>4.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 9 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 9 保时捷设计版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 10 Lite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 10 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 10 保时捷设计版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 20 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 20 Lite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 20 RS保时捷设计版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 20 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 30 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 30 RS保时捷设计版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate Xs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 40 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 40 Pro+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 40 RS保时捷设计版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mate 40 E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 40 E Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU核心数（左大右小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海思 Kirin 925</t>
+  </si>
+  <si>
+    <t>1.8GHz + 1.3GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali-T628 MP4</t>
+  </si>
+  <si>
+    <t>1920×1080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT材质（IPS/LTPS技术）</t>
+  </si>
+  <si>
+    <t>6英寸</t>
+  </si>
+  <si>
+    <t>367ppi</t>
+  </si>
+  <si>
+    <t>1300万</t>
+  </si>
+  <si>
+    <t>光圈（左后右前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f/2.4 + f/2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背照式/BSI CMOS（四代）</t>
+  </si>
+  <si>
+    <t>2G：GSM 850/900/1800/1900 3G：TD-SCDMA B34/39 4G：TD-LTE B38/39/40/41</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>4100mAh</t>
   </si>
 </sst>
 </file>
@@ -558,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -580,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -619,80 +786,80 @@
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="J2" s="3">
         <v>0.73209999999999997</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U2" s="4">
         <v>41306</v>
@@ -700,72 +867,485 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="J3" s="3">
         <v>0.75039999999999996</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="T3" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U3" s="4">
         <v>41699</v>
       </c>
     </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" s="4">
+        <v>41883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E1C67-A7C6-4ECC-A6B4-EF71179573BF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B76A7B6-4058-4F5E-B8C7-BCE1211BF07F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF8CDD9-1A70-49CB-A4BE-981FAFF82701}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD42128-56BF-4DE5-9A95-FD383A9C32E5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD28F28-222A-4D92-811B-01AA027C7CB1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF441627-7379-4647-A7C2-B06884A664EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F09CC2-24B9-4D7B-84B4-533C55277471}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD0AC9C-B016-4C90-9E5B-9B0079A66696}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D46DF-D2AD-4E3D-9D4A-0D6C039BBBE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A0AECD-F963-43A7-951E-C247E512152A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63526163-BA48-4AFE-9D97-93FF798CFBDD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C96D8D-CC28-43A4-9324-FB6A92EB47A1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748EC067-B53A-47FF-8448-2D49157A694A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0C92B5-17A9-4799-9B94-8CAE6BD52FD2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CE16FC-540F-47ED-B5DD-997511E32111}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C74889-F70E-4DE0-AE96-C675D95E475B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEC0CBF-EBFC-45FF-9FF6-F981A1A64F30}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/华为.xlsx
+++ b/华为.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MobileInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B695D76-6DB3-44D7-9CE6-A2B507F14C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1A04E7-59FE-4EDE-9EBD-DD1F036DF75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,45 @@
   </si>
   <si>
     <t>4100mAh</t>
+  </si>
+  <si>
+    <t>2.2GHz + 1.5GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3GB</t>
+  </si>
+  <si>
+    <t>32GB/64GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5英寸</t>
+  </si>
+  <si>
+    <t>401ppi</t>
+  </si>
+  <si>
+    <t>AMOLED 2.5D玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背照式/BSI CMOS</t>
+  </si>
+  <si>
+    <t>移动3G（TD-SCDMA），联通3G（WCDMA），联通2G/移动2G（GSM），	移动TD-LTE，联通TD-LTE，联通FDD-LTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2700mAh</t>
+  </si>
+  <si>
+    <t>海思 Kirin 935</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -728,7 +767,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -999,6 +1038,61 @@
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.73839999999999995</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U5" s="4">
+        <v>42248</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">

--- a/华为.xlsx
+++ b/华为.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MobileInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1A04E7-59FE-4EDE-9EBD-DD1F036DF75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C5CD97-6AC3-4DBA-84F9-3B5D1999955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,10 +166,6 @@
     <t>IEEE 802.11 n/b/g</t>
   </si>
   <si>
-    <t>蓝牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4050mAh</t>
   </si>
   <si>
@@ -379,6 +375,9 @@
   </si>
   <si>
     <t>32GB/64GB</t>
+  </si>
+  <si>
+    <t>32GB/64GB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -408,6 +407,40 @@
   <si>
     <t>海思 Kirin 935</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 9 Lite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海思 Kirin 655</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3GB/4GB</t>
+  </si>
+  <si>
+    <t>1200万 + 200万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G：GSM 850/900/1800/1900 3G：CDMA EVDO 800 3G：WCDMA B1/2/4/5/6/8/19 3G：TD-SCDMA B34/39 4G：TD-LTE B38/39/40/41 4G：FDD-LTE B1/2/3/4/5/7/8/9/12/17/18/19/20/26/28/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3340mAh</t>
   </si>
 </sst>
 </file>
@@ -764,16 +797,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="17" width="30.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="150.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="200.77734375" style="2" customWidth="1"/>
     <col min="19" max="19" width="30.77734375" style="2" customWidth="1"/>
     <col min="20" max="20" width="30.77734375" style="6" customWidth="1"/>
     <col min="21" max="26" width="30.77734375" style="2" customWidth="1"/>
@@ -789,7 +822,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -825,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>12</v>
@@ -837,7 +870,7 @@
         <v>14</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>15</v>
@@ -845,23 +878,25 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>25</v>
@@ -873,32 +908,32 @@
         <v>0.73209999999999997</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="U2" s="4">
         <v>41306</v>
@@ -906,7 +941,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -942,7 +977,7 @@
         <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>27</v>
@@ -963,7 +998,7 @@
         <v>32</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U3" s="4">
         <v>41699</v>
@@ -971,31 +1006,31 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="J4" s="3">
         <v>0.78049999999999997</v>
@@ -1007,28 +1042,28 @@
         <v>21</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="U4" s="4">
         <v>41883</v>
@@ -1036,20 +1071,22 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>94</v>
@@ -1067,16 +1104,16 @@
         <v>91</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>98</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>95</v>
@@ -1085,7 +1122,7 @@
         <v>96</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>97</v>
@@ -1096,122 +1133,184 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/华为.xlsx
+++ b/华为.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MobileInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C5CD97-6AC3-4DBA-84F9-3B5D1999955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B537A5B-B4A5-47B6-B063-6EDB5775764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="160">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mate S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mate 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,9 +336,6 @@
     <t>367ppi</t>
   </si>
   <si>
-    <t>1300万</t>
-  </si>
-  <si>
     <t>光圈（左后右前）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,9 +350,6 @@
     <t>2G：GSM 850/900/1800/1900 3G：TD-SCDMA B34/39 4G：TD-LTE B38/39/40/41</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
     <t>4100mAh</t>
   </si>
   <si>
@@ -394,10 +380,6 @@
     <t>背照式/BSI CMOS</t>
   </si>
   <si>
-    <t>移动3G（TD-SCDMA），联通3G（WCDMA），联通2G/移动2G（GSM），	移动TD-LTE，联通TD-LTE，联通FDD-LTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,6 +411,9 @@
   </si>
   <si>
     <t>2G：GSM 850/900/1800/1900 3G：CDMA EVDO 800 3G：WCDMA B1/2/4/5/6/8/19 3G：TD-SCDMA B34/39 4G：TD-LTE B38/39/40/41 4G：FDD-LTE B1/2/3/4/5/7/8/9/12/17/18/19/20/26/28/29</t>
+  </si>
+  <si>
+    <t>2G：GSM 850/900/1800/1900 3G：CDMA EVDO 800 3G：WCDMA B1/2/4/5/6/8/19 3G：TD-SCDMA B34/39 4G：TD-LTE B38/39/40/41 4G：FDD-LTE B1/2/3/4/5/7/8/9/12/17/18/19/20/26/28/29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -441,6 +426,204 @@
   </si>
   <si>
     <t>3340mAh</t>
+  </si>
+  <si>
+    <t>海思 Kirin 960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2560×1440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000mAh</t>
+  </si>
+  <si>
+    <t>2.4GHz + 1.8GHz + 微智核i6</t>
+  </si>
+  <si>
+    <t>2.4GHz + 1.8GHz + 微智核i6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>534ppi</t>
+  </si>
+  <si>
+    <t>2000万 + 1200万</t>
+  </si>
+  <si>
+    <t>2000万 + 1200万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f/2.2 + f/1.9</t>
+  </si>
+  <si>
+    <t>f/2.2 + f/1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G：GSM 850/900/1800/1900 2G：CDM BC0 3G：WCDMA B1/2/4/5/6/8/19 3G：TD-SCDMA B34/39 4G：TD-LTE B38/39/40/41 4G：FDD-LTE B1/2/3/4/5/7/8/9/12/17/18/19/20/26/28/29</t>
+  </si>
+  <si>
+    <t>IEEE 802.11 a/b/g/n/ac</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000mAh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.5w(3.5V/5A)</t>
+  </si>
+  <si>
+    <t>2013年02月</t>
+  </si>
+  <si>
+    <t>2014年03月</t>
+  </si>
+  <si>
+    <t>2014年09月</t>
+  </si>
+  <si>
+    <t>2015年11月</t>
+  </si>
+  <si>
+    <t>2016年11月</t>
+  </si>
+  <si>
+    <t>2016年12月15日</t>
+  </si>
+  <si>
+    <t>1600万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64GB/128GB</t>
+  </si>
+  <si>
+    <t>64GB/128GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海思 Kirin 950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32GB/64GB/128GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 8 尊爵版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3GHz + 1.8GHz + 微智核i5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali-T880</t>
+  </si>
+  <si>
+    <t>主摄堆栈式CMOS 副摄BSI CMOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G：GSM 850/900/1800/1900 3G：CDMA EVDO 800 3G：WCDMA 850/900/1900/2100 3G：TD-SCDMA B34/39 4G：TD-LTE B38/39/40/41 4G：FDD-LTE B1/2/3/4/5/6/7/8/12/17/18/19/20/26</t>
+  </si>
+  <si>
+    <t>Mate S 臻享版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate S 臻逸版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5D玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT材质（IPS技术） 2.5D玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9英寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>373ppi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFT材质 2.5D玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSI CMOS</t>
+  </si>
+  <si>
+    <t>AMOLED 2K双曲面屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE 802.11 a/b/g/n/ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSI CMOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali G71 MP8</t>
+  </si>
+  <si>
+    <t>Mali G71 MP8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4GB/6GB (LPDDR4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6GB (LPDDR4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年12月</t>
+  </si>
+  <si>
+    <t>2G：GSM 850/900/1800/1900 2G：CDMA BC0 3G：WCDMA B1/2/4/5/6/8/19 3G：TD-SCDMA B34/39 4G：TD-LTE B38/39/40/41 4G：FDD-LTE B1/2/3/4/5/7/8/9/12/17/18/19/20/26/28/29</t>
   </si>
 </sst>
 </file>
@@ -499,23 +682,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,523 +988,818 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="30.77734375" style="2" customWidth="1"/>
+    <col min="1" max="16" width="30.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="35.77734375" style="2" customWidth="1"/>
     <col min="18" max="18" width="200.77734375" style="2" customWidth="1"/>
     <col min="19" max="19" width="30.77734375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="30.77734375" style="6" customWidth="1"/>
-    <col min="21" max="26" width="30.77734375" style="2" customWidth="1"/>
-    <col min="27" max="34" width="15.77734375" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.88671875" style="1"/>
+    <col min="20" max="21" width="30.77734375" style="3" customWidth="1"/>
+    <col min="22" max="26" width="30.77734375" style="2" customWidth="1"/>
+    <col min="27" max="34" width="15.77734375" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5">
+        <v>0.75039999999999996</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="6" t="s">
+      <c r="S4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.73839999999999995</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.7752</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.73209999999999997</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="4">
-        <v>41306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.75039999999999996</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="4">
-        <v>41699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.78049999999999997</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="U4" s="4">
-        <v>41883</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.73839999999999995</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="U5" s="4">
-        <v>42248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="N12" s="1"/>
+      <c r="O12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="14" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.72519999999999996</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="15" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="16" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="29" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="30" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="31" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="32" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="V2:V9"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/华为.xlsx
+++ b/华为.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MobileInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B537A5B-B4A5-47B6-B063-6EDB5775764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4323FE8F-3AAA-4C91-8F9A-18D29DAAAC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="162">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,9 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3GB/4GB</t>
-  </si>
-  <si>
     <t>1200万 + 200万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -624,6 +621,17 @@
   </si>
   <si>
     <t>2G：GSM 850/900/1800/1900 2G：CDMA BC0 3G：WCDMA B1/2/4/5/6/8/19 3G：TD-SCDMA B34/39 4G：TD-LTE B38/39/40/41 4G：FDD-LTE B1/2/3/4/5/7/8/9/12/17/18/19/20/26/28/29</t>
+  </si>
+  <si>
+    <t>Mali-T830 MP2</t>
+  </si>
+  <si>
+    <t>3GB/4GB (LPDDR3-933)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12 GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -991,7 +999,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>2</v>
@@ -1062,13 +1070,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1085,7 +1093,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>22</v>
@@ -1131,10 +1139,10 @@
         <v>42</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1185,7 +1193,7 @@
       </c>
       <c r="T3" s="8"/>
       <c r="U3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V3" s="1"/>
     </row>
@@ -1243,13 +1251,13 @@
       </c>
       <c r="T4" s="8"/>
       <c r="U4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>94</v>
@@ -1282,17 +1290,17 @@
         <v>93</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>91</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>41</v>
@@ -1301,13 +1309,13 @@
         <v>92</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1319,7 +1327,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="7"/>
       <c r="K6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1338,18 +1346,18 @@
         <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>77</v>
@@ -1361,39 +1369,39 @@
         <v>0.78390000000000004</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>80</v>
       </c>
       <c r="Q7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="S7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1401,16 +1409,16 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="7"/>
       <c r="K8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1428,54 +1436,54 @@
         <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="J9" s="5">
         <v>0.7752</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="8"/>
       <c r="U9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -1484,22 +1492,22 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J10" s="5">
         <v>0.73150000000000004</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1510,18 +1518,18 @@
         <v>39</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="8"/>
       <c r="U10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>95</v>
       </c>
@@ -1529,19 +1537,19 @@
         <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
@@ -1554,33 +1562,33 @@
         <v>86</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1588,63 +1596,63 @@
         <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J12" s="5">
         <v>0.73150000000000004</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="U12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
